--- a/data/test_data2.xlsx
+++ b/data/test_data2.xlsx
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -406,6 +406,7 @@
     <col width="11.54296875" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="12.1796875" customWidth="1" min="7" max="7"/>
     <col width="14.36328125" bestFit="1" customWidth="1" min="13" max="15"/>
+    <col width="10.81640625" bestFit="1" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -489,6 +490,11 @@
           <t>result</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>executed By</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -613,6 +619,11 @@
           <t>Failed</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Muntasir</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -675,7 +686,13 @@
           <t>Failed</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Muntasir</t>
+        </is>
+      </c>
     </row>
+    <row r="5" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
